--- a/Data/Processed/Angiosperms/missing_powo_ipni/Annonaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Annonaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Jard. Rio de Janeiro 6: 1, pl. 1. 1898 </t>
+          <t>Pl. Jard. Rio de Janeiro 6: 1, pl. 1. 1898</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 16: 267, pl. 87. 1913 </t>
+          <t>Contr. U.S. Natl. Herb. 16: 267, pl. 87. 1913</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 13: 115, fig. 2a. 1945 </t>
+          <t>Acta Horti Berg. 13: 115, fig. 2a. 1945</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Jard. Rio de Janeiro 4: 1, pl. 1. 1894 </t>
+          <t>Pl. Jard. Rio de Janeiro 4: 1, pl. 1. 1894</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -877,7 +877,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 305. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 305. 1895</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 304. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 304. 1895</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 12: 37. 1934 </t>
+          <t>Acta Horti Berg. 12: 37. 1934</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 118(2): 217. 1996 [5 Jul 1996] </t>
+          <t>Bot. Jahrb. Syst. 118(2): 217. 1996 [5 Jul 1996]</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 296, pl. 21. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 296, pl. 21. 1895</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blumea 53(3): 484 (-486, 489, 471; fig. 7, map 1, plate 2a-b). 2008 [31 Dec 2008] </t>
+          <t>Blumea 53(3): 484 (-486, 489, 471; fig. 7, map 1, plate 2a-b). 2008 [31 Dec 2008]</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 12: 226. 1937 </t>
+          <t>Acta Horti Berg. 12: 226. 1937</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. (n. s.) 3: 602. 1956 </t>
+          <t>Ark. Bot. (n. s.) 3: 602. 1956</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 12(2): 280. 1937 </t>
+          <t>Acta Horti Berg. 12(2): 280. 1937</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Kon. Ned. Akad. Wetensch. C 92(3): 300, fig. 5. 1989 </t>
+          <t>Proc. Kon. Ned. Akad. Wetensch. C 92(3): 300, fig. 5. 1989</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 12: 178, fig. 11a-c. 1934 </t>
+          <t>Acta Horti Berg. 12: 178, fig. 11a-c. 1934</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Wash. Acad. Sci. 6: 375, fig. 2. 1916 </t>
+          <t>J. Wash. Acad. Sci. 6: 375, fig. 2. 1916</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 12: 166, fig. 10a-c. 1934 </t>
+          <t>Acta Horti Berg. 12: 166, fig. 10a-c. 1934</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 4, 17: 31. 1862 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 4, 17: 31. 1862</t>
         </is>
       </c>
       <c r="J23" t="b">
